--- a/data/Esercizio3.8.7.xlsx
+++ b/data/Esercizio3.8.7.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Code/IULM/IULM_DDM2324_Notebooks/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a522c\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CA9115-BAA4-1249-BAD3-8DF7CF2D69A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A38B6E6-84FE-4AE4-BED9-C9331215AC84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CF0EF3A0-60D6-9A4A-AC7D-4EF6AE00A296}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{CF0EF3A0-60D6-9A4A-AC7D-4EF6AE00A296}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Soluzione" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Area 1</t>
   </si>
@@ -75,12 +66,48 @@
   <si>
     <t>Totale</t>
   </si>
+  <si>
+    <t>Penetrazione Lavatrici Italia</t>
+  </si>
+  <si>
+    <t>Penetrazione Lavatrici Area 1</t>
+  </si>
+  <si>
+    <t>Penetrazione Lavatrici Area 2</t>
+  </si>
+  <si>
+    <t>Penetrazione Lavatrici Area 3</t>
+  </si>
+  <si>
+    <t>Penetrazione Lavatrici Area 4</t>
+  </si>
+  <si>
+    <t>Rapporto tra PA1 e P Tot</t>
+  </si>
+  <si>
+    <t>Rapporto tra PA2 e P Tot</t>
+  </si>
+  <si>
+    <t>Rapporto tra PA3 e P Tot</t>
+  </si>
+  <si>
+    <t>Rapporto tra PA4e P Tot</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +123,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -122,11 +157,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -141,9 +293,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,8 +362,1267 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BDI e CDI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Soluzione!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Miele</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DD8C096C-2F82-40DC-B746-7DBADA7DD62D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CD7E-48EB-87BE-0C84C4ED28C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{30FDFB36-783F-4371-806E-9231519492EC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-CD7E-48EB-87BE-0C84C4ED28C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C3105999-25AD-47CC-8132-540A08DAC976}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-CD7E-48EB-87BE-0C84C4ED28C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{79F09323-0070-482A-916C-6C36DF0B0390}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-CD7E-48EB-87BE-0C84C4ED28C6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Soluzione!$J$24:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>122.62801755994521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.70620430061004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.501943865851622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.695409509799674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Soluzione!$N$24:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>98.858332412726469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.12035570276495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.613438117182341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.71173675115207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Soluzione!$E$24:$E$27</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>Area 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Area 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Area 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Area 4</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD7E-48EB-87BE-0C84C4ED28C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1773506064"/>
+        <c:axId val="1712638288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1773506064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712638288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1712638288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1773506064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="sng"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1670537</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388326</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>56418</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFFF7CD-14CD-4DE4-BDE3-B6B5F89E1D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>359020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Connettore diritto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E738A3FB-16A2-4E6E-A4C5-4A3162BBC0B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6220558" y="6733442"/>
+          <a:ext cx="4843096" cy="14654"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600808</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connettore diritto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573D4B80-67E9-437C-B045-D44C6E566A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8118231" y="5927480"/>
+          <a:ext cx="14654" cy="2139462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,16 +1920,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B3AFFD-1D79-C845-A353-62A565DAC744}">
   <dimension ref="E4:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
@@ -495,7 +1958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +1991,7 @@
         <v>43015</v>
       </c>
     </row>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
@@ -561,7 +2024,7 @@
         <v>33646</v>
       </c>
     </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
@@ -594,7 +2057,7 @@
         <v>28628</v>
       </c>
     </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
@@ -627,7 +2090,7 @@
         <v>33591</v>
       </c>
     </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
@@ -670,5 +2133,771 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAD4B10-46EB-40E7-9777-C87CFBFBAAF8}">
+  <dimension ref="E4:N27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>730000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6628</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3426</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5197</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8880</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3289</v>
+      </c>
+      <c r="L5" s="2">
+        <v>9723</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5872</v>
+      </c>
+      <c r="N5" s="2">
+        <f>SUM(G5:M5)</f>
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>400000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5439</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3712</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4816</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8559</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6456</v>
+      </c>
+      <c r="L6" s="2">
+        <v>923</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3741</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:N9" si="0">SUM(G6:M6)</f>
+        <v>33646</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>700000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5298</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6080</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8091</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2118</v>
+      </c>
+      <c r="K7" s="2">
+        <v>908</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2499</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3634</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>28628</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2578</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2988</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5581</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3556</v>
+      </c>
+      <c r="K8" s="2">
+        <v>9323</v>
+      </c>
+      <c r="L8" s="2">
+        <v>7338</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2227</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>33591</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5">
+        <f>SUM(F5:F8)</f>
+        <v>2330000</v>
+      </c>
+      <c r="G9" s="5">
+        <f>SUM(G5:G8)</f>
+        <v>19943</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:M9" si="1">SUM(H5:H8)</f>
+        <v>16206</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>23685</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>23113</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="1"/>
+        <v>19976</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>20483</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>15474</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>138880</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6">
+        <f>G5/$F5</f>
+        <v>9.0794520547945214E-3</v>
+      </c>
+      <c r="H11" s="6">
+        <f>H5/$F5</f>
+        <v>4.6931506849315066E-3</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" ref="I11:N11" si="2">I5/$F5</f>
+        <v>7.1191780821917806E-3</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2164383561643836E-2</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>4.5054794520547944E-3</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="2"/>
+        <v>1.331917808219178E-2</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="2"/>
+        <v>8.0438356164383561E-3</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
+        <v>5.8924657534246576E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" ref="G12:N12" si="3">G6/$F6</f>
+        <v>1.35975E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
+        <v>9.2800000000000001E-3</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="3"/>
+        <v>1.204E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="3"/>
+        <v>2.13975E-2</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6140000000000002E-2</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3075000000000001E-3</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="3"/>
+        <v>9.3524999999999997E-3</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="3"/>
+        <v>8.4114999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13:N13" si="4">G7/$F7</f>
+        <v>7.5685714285714288E-3</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="4"/>
+        <v>8.6857142857142862E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1558571428571428E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="4"/>
+        <v>3.0257142857142857E-3</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2971428571428572E-3</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="4"/>
+        <v>3.5699999999999998E-3</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="4"/>
+        <v>5.1914285714285717E-3</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="4"/>
+        <v>4.0897142857142854E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" ref="G14:N14" si="5">G8/$F8</f>
+        <v>5.156E-3</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="5"/>
+        <v>5.9760000000000004E-3</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1162E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="5"/>
+        <v>7.1120000000000003E-3</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="5"/>
+        <v>1.8645999999999999E-2</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4676E-2</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="5"/>
+        <v>4.4539999999999996E-3</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="5"/>
+        <v>6.7182000000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" ref="G15:N15" si="6">G9/$F9</f>
+        <v>8.5592274678111587E-3</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="6"/>
+        <v>6.9553648068669529E-3</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="6"/>
+        <v>1.0165236051502146E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="6"/>
+        <v>9.9197424892703868E-3</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="6"/>
+        <v>8.5733905579399149E-3</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="6"/>
+        <v>8.7909871244635195E-3</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="6"/>
+        <v>6.6412017167381977E-3</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="6"/>
+        <v>5.9605150214592277E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="6">
+        <f>G11/G$15</f>
+        <v>1.0607793856326146</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17:N17" si="7">H11/H$15</f>
+        <v>0.67475262840246886</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="7"/>
+        <v>0.70034557447780654</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="7"/>
+        <v>1.2262801755994521</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="7"/>
+        <v>0.52551897893911048</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="7"/>
+        <v>1.5150947093446687</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="7"/>
+        <v>1.2112018215265199</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="7"/>
+        <v>0.98858332412726468</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" ref="G18:N18" si="8">G12/G$15</f>
+        <v>1.5886363636363636</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="8"/>
+        <v>1.3342218931260026</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="8"/>
+        <v>1.1844289634789953</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="8"/>
+        <v>2.1570620430061003</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="8"/>
+        <v>1.8825690828994794</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="8"/>
+        <v>0.26248474344578432</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="8"/>
+        <v>1.4082541682822798</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="8"/>
+        <v>1.4112035570276495</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" ref="G19:N19" si="9">G13/G$15</f>
+        <v>0.88425870874850476</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="9"/>
+        <v>1.2487791117928104</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="9"/>
+        <v>1.1370686691396001</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="9"/>
+        <v>0.30501943865851622</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="9"/>
+        <v>0.15129870129870129</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="9"/>
+        <v>0.40609773958892736</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="9"/>
+        <v>0.78170017910227296</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="9"/>
+        <v>0.68613438117182346</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" ref="G20:N20" si="10">G14/G$15</f>
+        <v>0.60239081381938531</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="10"/>
+        <v>0.85919289152165867</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0980561536837661</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="10"/>
+        <v>0.71695409509799679</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="10"/>
+        <v>2.1748688426111329</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="10"/>
+        <v>1.6694370941756578</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="10"/>
+        <v>0.67066175520227467</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="10"/>
+        <v>1.1271173675115207</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="7" t="str">
+        <f>G4</f>
+        <v>Bosch</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f t="shared" ref="H23:M23" si="11">H4</f>
+        <v>Candy</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>Samsung</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>Miele</v>
+      </c>
+      <c r="K23" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>ElectroLux</v>
+      </c>
+      <c r="L23" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>Indesit</v>
+      </c>
+      <c r="M23" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>LG</v>
+      </c>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f>E5</f>
+        <v>Area 1</v>
+      </c>
+      <c r="G24" s="11">
+        <f>100*G17</f>
+        <v>106.07793856326147</v>
+      </c>
+      <c r="H24" s="12">
+        <f>100*H17</f>
+        <v>67.475262840246884</v>
+      </c>
+      <c r="I24" s="12">
+        <f>100*I17</f>
+        <v>70.034557447780657</v>
+      </c>
+      <c r="J24" s="12">
+        <f>100*J17</f>
+        <v>122.62801755994521</v>
+      </c>
+      <c r="K24" s="12">
+        <f>100*K17</f>
+        <v>52.551897893911047</v>
+      </c>
+      <c r="L24" s="12">
+        <f>100*L17</f>
+        <v>151.50947093446686</v>
+      </c>
+      <c r="M24" s="13">
+        <f>100*M17</f>
+        <v>121.12018215265199</v>
+      </c>
+      <c r="N24" s="14">
+        <f>100*N17</f>
+        <v>98.858332412726469</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E27" si="12">E6</f>
+        <v>Area 2</v>
+      </c>
+      <c r="G25" s="11">
+        <f>100*G18</f>
+        <v>158.86363636363637</v>
+      </c>
+      <c r="H25" s="12">
+        <f>100*H18</f>
+        <v>133.42218931260027</v>
+      </c>
+      <c r="I25" s="12">
+        <f>100*I18</f>
+        <v>118.44289634789953</v>
+      </c>
+      <c r="J25" s="12">
+        <f>100*J18</f>
+        <v>215.70620430061004</v>
+      </c>
+      <c r="K25" s="12">
+        <f>100*K18</f>
+        <v>188.25690828994794</v>
+      </c>
+      <c r="L25" s="12">
+        <f>100*L18</f>
+        <v>26.248474344578433</v>
+      </c>
+      <c r="M25" s="13">
+        <f>100*M18</f>
+        <v>140.82541682822799</v>
+      </c>
+      <c r="N25" s="23">
+        <f>100*N18</f>
+        <v>141.12035570276495</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f t="shared" si="12"/>
+        <v>Area 3</v>
+      </c>
+      <c r="G26" s="11">
+        <f>100*G19</f>
+        <v>88.425870874850474</v>
+      </c>
+      <c r="H26" s="12">
+        <f>100*H19</f>
+        <v>124.87791117928104</v>
+      </c>
+      <c r="I26" s="12">
+        <f>100*I19</f>
+        <v>113.70686691396001</v>
+      </c>
+      <c r="J26" s="12">
+        <f>100*J19</f>
+        <v>30.501943865851622</v>
+      </c>
+      <c r="K26" s="12">
+        <f>100*K19</f>
+        <v>15.129870129870129</v>
+      </c>
+      <c r="L26" s="12">
+        <f>100*L19</f>
+        <v>40.609773958892738</v>
+      </c>
+      <c r="M26" s="13">
+        <f>100*M19</f>
+        <v>78.170017910227301</v>
+      </c>
+      <c r="N26" s="14">
+        <f>100*N19</f>
+        <v>68.613438117182341</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" t="str">
+        <f t="shared" si="12"/>
+        <v>Area 4</v>
+      </c>
+      <c r="G27" s="15">
+        <f>100*G20</f>
+        <v>60.239081381938533</v>
+      </c>
+      <c r="H27" s="16">
+        <f>100*H20</f>
+        <v>85.919289152165874</v>
+      </c>
+      <c r="I27" s="16">
+        <f>100*I20</f>
+        <v>109.80561536837661</v>
+      </c>
+      <c r="J27" s="16">
+        <f>100*J20</f>
+        <v>71.695409509799674</v>
+      </c>
+      <c r="K27" s="16">
+        <f>100*K20</f>
+        <v>217.48688426111329</v>
+      </c>
+      <c r="L27" s="16">
+        <f>100*L20</f>
+        <v>166.94370941756577</v>
+      </c>
+      <c r="M27" s="17">
+        <f>100*M20</f>
+        <v>67.066175520227461</v>
+      </c>
+      <c r="N27" s="18">
+        <f>100*N20</f>
+        <v>112.71173675115207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G22:M22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>